--- a/public/excelUploads/Sanyam.xlsx
+++ b/public/excelUploads/Sanyam.xlsx
@@ -1,33 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BB120DDE-DDBE-B847-A208-685FD73C7140}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{398F87EA-1DE2-44C1-AD58-2374A606BC43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{95407967-1CEF-4C28-9DAE-F992258B4557}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -988,21 +979,21 @@
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.19921875" customWidth="1"/>
-    <col min="2" max="2" width="20.58203125" customWidth="1"/>
-    <col min="3" max="3" width="23.26953125" customWidth="1"/>
-    <col min="4" max="4" width="20.3125" customWidth="1"/>
-    <col min="5" max="5" width="23.13671875" customWidth="1"/>
-    <col min="6" max="6" width="23.40625" customWidth="1"/>
-    <col min="7" max="7" width="33.08984375" customWidth="1"/>
-    <col min="8" max="8" width="31.20703125" customWidth="1"/>
-    <col min="9" max="9" width="24.6171875" customWidth="1"/>
-    <col min="10" max="10" width="49.50390625" customWidth="1"/>
+    <col min="1" max="1" width="15.21875" customWidth="1"/>
+    <col min="2" max="2" width="20.5546875" customWidth="1"/>
+    <col min="3" max="3" width="23.21875" customWidth="1"/>
+    <col min="4" max="4" width="20.33203125" customWidth="1"/>
+    <col min="5" max="5" width="23.109375" customWidth="1"/>
+    <col min="6" max="6" width="23.44140625" customWidth="1"/>
+    <col min="7" max="7" width="33.109375" customWidth="1"/>
+    <col min="8" max="8" width="31.21875" customWidth="1"/>
+    <col min="9" max="9" width="24.6640625" customWidth="1"/>
+    <col min="10" max="10" width="49.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1034,7 +1025,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>10</v>
       </c>
@@ -1066,7 +1057,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>18</v>
       </c>
@@ -1098,7 +1089,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>18</v>
       </c>
@@ -1130,7 +1121,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>26</v>
       </c>
@@ -1162,7 +1153,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>33</v>
       </c>
@@ -1194,7 +1185,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>40</v>
       </c>
@@ -1226,7 +1217,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
         <v>48</v>
       </c>
@@ -1254,7 +1245,7 @@
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
     </row>
-    <row r="9" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
         <v>53</v>
       </c>
@@ -1286,7 +1277,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
         <v>59</v>
       </c>
@@ -1318,7 +1309,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
         <v>66</v>
       </c>
@@ -1350,7 +1341,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
         <v>73</v>
       </c>
@@ -1382,7 +1373,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
         <v>80</v>
       </c>
@@ -1414,7 +1405,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
         <v>88</v>
       </c>
@@ -1446,7 +1437,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
         <v>94</v>
       </c>
@@ -1478,7 +1469,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
         <v>101</v>
       </c>
@@ -1510,7 +1501,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
         <v>108</v>
       </c>
@@ -1542,7 +1533,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
         <v>113</v>
       </c>
@@ -1574,7 +1565,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
         <v>120</v>
       </c>
@@ -1606,7 +1597,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
         <v>127</v>
       </c>
@@ -1638,7 +1629,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
         <v>133</v>
       </c>
@@ -1670,7 +1661,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
         <v>138</v>
       </c>
@@ -1702,7 +1693,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
         <v>144</v>
       </c>
@@ -1734,7 +1725,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="5" t="s">
         <v>150</v>
       </c>
@@ -1766,7 +1757,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="5" t="s">
         <v>155</v>
       </c>
@@ -1798,7 +1789,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="5" t="s">
         <v>160</v>
       </c>
